--- a/ModeloProdutosFornecedor.xlsx
+++ b/ModeloProdutosFornecedor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas.psouza27\Documents\Workspace\Sistema OS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA8B5556-7C82-4422-9C1D-69D1998D3D96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94DBA6FF-886A-4929-B2BA-7902BDED0087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{64BDA706-9FCA-4E2F-9C61-FD5907C7B59B}"/>
+    <workbookView xWindow="870" yWindow="2295" windowWidth="19335" windowHeight="9360" xr2:uid="{64BDA706-9FCA-4E2F-9C61-FD5907C7B59B}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
   <si>
     <t>Cbarcode</t>
   </si>
@@ -108,9 +108,6 @@
   </si>
   <si>
     <t>Descricao</t>
-  </si>
-  <si>
-    <t>IdEndereco</t>
   </si>
   <si>
     <t>IdContato</t>
@@ -276,10 +273,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -582,7 +575,7 @@
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C4" sqref="C4 C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,10 +604,10 @@
         <v>1</v>
       </c>
       <c r="I1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" t="s">
         <v>36</v>
-      </c>
-      <c r="K1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -635,19 +628,19 @@
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>24</v>
+      <c r="C3" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -662,7 +655,7 @@
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E4" t="s">
@@ -679,7 +672,7 @@
         <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="G5" t="s">
         <v>18</v>
@@ -691,8 +684,8 @@
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>26</v>
+      <c r="C6" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="M6" s="6"/>
       <c r="N6" s="5"/>
@@ -701,8 +694,8 @@
       <c r="A7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>27</v>
+      <c r="C7" t="s">
+        <v>28</v>
       </c>
       <c r="M7" s="6"/>
       <c r="N7" s="5"/>
@@ -711,8 +704,8 @@
       <c r="A8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>28</v>
+      <c r="C8" t="s">
+        <v>29</v>
       </c>
       <c r="M8" s="6"/>
       <c r="N8" s="5"/>
@@ -722,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M9" s="6"/>
       <c r="N9" s="5"/>
@@ -732,7 +725,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M10" s="6"/>
       <c r="N10" s="5"/>
@@ -751,9 +744,6 @@
       <c r="A12" t="s">
         <v>6</v>
       </c>
-      <c r="C12" t="s">
-        <v>33</v>
-      </c>
       <c r="G12" s="1" t="s">
         <v>4</v>
       </c>
@@ -769,9 +759,6 @@
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
-      </c>
-      <c r="C13" t="s">
-        <v>32</v>
       </c>
       <c r="M13" s="6"/>
       <c r="N13" s="5"/>
@@ -805,6 +792,14 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="d81a2a20-70f2-47a3-a38f-c68f6d0c169c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010036E7CE60F14B084BBA3FF040C142ECE8" ma:contentTypeVersion="10" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="9adcb2ed719e564f51ef6edf45869f78">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="d81a2a20-70f2-47a3-a38f-c68f6d0c169c" xmlns:ns4="fc1a7f55-572f-4f48-b19f-3f3dbab2d102" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ed6c27632dbfda2edcd91462bf3020bc" ns3:_="" ns4:_="">
     <xsd:import namespace="d81a2a20-70f2-47a3-a38f-c68f6d0c169c"/>
@@ -1005,14 +1000,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="d81a2a20-70f2-47a3-a38f-c68f6d0c169c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0F9AB89-AF8C-40F5-9C49-9767D3172234}">
   <ds:schemaRefs>
@@ -1022,6 +1009,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1C29475-06DA-4044-8196-B2C8ABC951AE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="fc1a7f55-572f-4f48-b19f-3f3dbab2d102"/>
+    <ds:schemaRef ds:uri="d81a2a20-70f2-47a3-a38f-c68f6d0c169c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31ECF84E-A002-40FF-93E8-4DBCB3E9EFB7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1038,21 +1042,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1C29475-06DA-4044-8196-B2C8ABC951AE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="fc1a7f55-572f-4f48-b19f-3f3dbab2d102"/>
-    <ds:schemaRef ds:uri="d81a2a20-70f2-47a3-a38f-c68f6d0c169c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>